--- a/螺纹/eta/螺纹期货价格_合并数据.xlsx
+++ b/螺纹/eta/螺纹期货价格_合并数据.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C602"/>
+  <dimension ref="A1:C605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,3802 +453,3802 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>3047.224788</v>
+        <v>3376.475236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>3041.368829</v>
+        <v>3371.037236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3045.561481</v>
+        <v>3363.616536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>3048.454003</v>
+        <v>3347.51553</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>3061.898364</v>
+        <v>3352.023083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>3044.365156</v>
+        <v>3350.746257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>3049.41478</v>
+        <v>3381.024831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>3081.852764</v>
+        <v>3360.005485</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>3101.969657</v>
+        <v>3344.894325</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>3096.503821</v>
+        <v>3392.418305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>3087.365906</v>
+        <v>3381.533165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>3089.622796</v>
+        <v>3391.935894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>3073.001937</v>
+        <v>3391.176475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>3075.029806</v>
+        <v>3385.965672</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>3092.158507</v>
+        <v>3383.49752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>3113.413738</v>
+        <v>3383.093078</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>3101.269592</v>
+        <v>3382.601156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>3099.932017</v>
+        <v>3389.320494</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>3075.720622</v>
+        <v>3286.34765</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>3063.957096</v>
+        <v>3203.008266</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>3046</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>2025/10/29</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
+        <v>3192.457896</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3071</v>
+        <v>3091</v>
       </c>
       <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3068</v>
+        <v>3100</v>
       </c>
       <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3045</v>
+        <v>3071</v>
       </c>
       <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3037</v>
+        <v>3068</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3034</v>
+        <v>3045</v>
       </c>
       <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3061</v>
+        <v>3037</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3083</v>
+        <v>3049</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3103</v>
+        <v>3034</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3096</v>
+        <v>3061</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3072</v>
+        <v>3083</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3114</v>
+        <v>3096</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3167</v>
+        <v>3072</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3164</v>
+        <v>3097</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3155</v>
+        <v>3114</v>
       </c>
       <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3185</v>
+        <v>3167</v>
       </c>
       <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3147</v>
+        <v>3155</v>
       </c>
       <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3168</v>
+        <v>3185</v>
       </c>
       <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3166</v>
+        <v>3172</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3136</v>
+        <v>3147</v>
       </c>
       <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3127</v>
+        <v>3168</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>3092</v>
+        <v>3166</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3109</v>
+        <v>3136</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3123</v>
+        <v>3127</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3132</v>
+        <v>3092</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>3143</v>
+        <v>3109</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3117</v>
+        <v>3123</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3106</v>
+        <v>3132</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3117</v>
+        <v>3143</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3115</v>
+        <v>3117</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3090</v>
+        <v>3106</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3129</v>
+        <v>3117</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3111</v>
+        <v>3115</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3113</v>
+        <v>3090</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3138</v>
+        <v>3129</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3119</v>
+        <v>3111</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3121</v>
+        <v>3113</v>
       </c>
       <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3132</v>
+        <v>3138</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>3126</v>
+        <v>3119</v>
       </c>
       <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3155</v>
+        <v>3121</v>
       </c>
       <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3188</v>
+        <v>3132</v>
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>3189</v>
+        <v>3126</v>
       </c>
       <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3222</v>
+        <v>3155</v>
       </c>
       <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3258</v>
+        <v>3188</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3250</v>
+        <v>3189</v>
       </c>
       <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3213</v>
+        <v>3222</v>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3231</v>
+        <v>3258</v>
       </c>
       <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3234</v>
+        <v>3250</v>
       </c>
       <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>3233</v>
+        <v>3213</v>
       </c>
       <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>3204</v>
+        <v>3231</v>
       </c>
       <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3203</v>
+        <v>3234</v>
       </c>
       <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3205</v>
+        <v>3233</v>
       </c>
       <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3315</v>
+        <v>3204</v>
       </c>
       <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3347</v>
+        <v>3203</v>
       </c>
       <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3248</v>
+        <v>3205</v>
       </c>
       <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3356</v>
+        <v>3315</v>
       </c>
       <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>3294</v>
+        <v>3347</v>
       </c>
       <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3274</v>
+        <v>3248</v>
       </c>
       <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3307</v>
+        <v>3356</v>
       </c>
       <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3224</v>
+        <v>3294</v>
       </c>
       <c r="C85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3147</v>
+        <v>3274</v>
       </c>
       <c r="C86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3133</v>
+        <v>3307</v>
       </c>
       <c r="C87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3106</v>
+        <v>3224</v>
       </c>
       <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3114</v>
+        <v>3147</v>
       </c>
       <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3133</v>
+        <v>3106</v>
       </c>
       <c r="C91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3123</v>
+        <v>3114</v>
       </c>
       <c r="C92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>3063</v>
+        <v>3138</v>
       </c>
       <c r="C93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>3063</v>
+        <v>3133</v>
       </c>
       <c r="C94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>3061</v>
+        <v>3123</v>
       </c>
       <c r="C95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3072</v>
+        <v>3063</v>
       </c>
       <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>3076</v>
+        <v>3063</v>
       </c>
       <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="C98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3003</v>
+        <v>3072</v>
       </c>
       <c r="C99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2997</v>
+        <v>3076</v>
       </c>
       <c r="C100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2995</v>
+        <v>3065</v>
       </c>
       <c r="C101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2973</v>
+        <v>3003</v>
       </c>
       <c r="C102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2976</v>
+        <v>2997</v>
       </c>
       <c r="C103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2977</v>
+        <v>2995</v>
       </c>
       <c r="C104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2995</v>
+        <v>2973</v>
       </c>
       <c r="C105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2992</v>
+        <v>2976</v>
       </c>
       <c r="C106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2986</v>
+        <v>2977</v>
       </c>
       <c r="C107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2986</v>
+        <v>2995</v>
       </c>
       <c r="C108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2981</v>
+        <v>2992</v>
       </c>
       <c r="C109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="C110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2969</v>
+        <v>2986</v>
       </c>
       <c r="C111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2968</v>
+        <v>2981</v>
       </c>
       <c r="C112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="C114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2981</v>
+        <v>2968</v>
       </c>
       <c r="C115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2975</v>
+        <v>2991</v>
       </c>
       <c r="C116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2959</v>
+        <v>2974</v>
       </c>
       <c r="C117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2974</v>
+        <v>2981</v>
       </c>
       <c r="C118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2928</v>
+        <v>2975</v>
       </c>
       <c r="C119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2961</v>
+        <v>2959</v>
       </c>
       <c r="C120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="C121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2964</v>
+        <v>2928</v>
       </c>
       <c r="C122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2980</v>
+        <v>2961</v>
       </c>
       <c r="C123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>3004</v>
+        <v>2978</v>
       </c>
       <c r="C124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>3046</v>
+        <v>2964</v>
       </c>
       <c r="C125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3061</v>
+        <v>2980</v>
       </c>
       <c r="C126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3061</v>
+        <v>3004</v>
       </c>
       <c r="C127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>3058</v>
+        <v>3046</v>
       </c>
       <c r="C128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="C129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3082</v>
+        <v>3061</v>
       </c>
       <c r="C130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3118</v>
+        <v>3058</v>
       </c>
       <c r="C131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3127</v>
+        <v>3069</v>
       </c>
       <c r="C132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>3079</v>
+        <v>3082</v>
       </c>
       <c r="C133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3082</v>
+        <v>3118</v>
       </c>
       <c r="C134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>3022</v>
+        <v>3127</v>
       </c>
       <c r="C135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3052</v>
+        <v>3079</v>
       </c>
       <c r="C136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3098</v>
+        <v>3082</v>
       </c>
       <c r="C137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>3077</v>
+        <v>3022</v>
       </c>
       <c r="C138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3096</v>
+        <v>3052</v>
       </c>
       <c r="C139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="C140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3129</v>
+        <v>3077</v>
       </c>
       <c r="C141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3106</v>
+        <v>3100</v>
       </c>
       <c r="C143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3137</v>
+        <v>3129</v>
       </c>
       <c r="C144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3075</v>
+        <v>3101</v>
       </c>
       <c r="C145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3113</v>
+        <v>3106</v>
       </c>
       <c r="C146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3076</v>
+        <v>3137</v>
       </c>
       <c r="C147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>3092</v>
+        <v>3075</v>
       </c>
       <c r="C148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>3093</v>
+        <v>3113</v>
       </c>
       <c r="C149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3125</v>
+        <v>3076</v>
       </c>
       <c r="C150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>3126</v>
+        <v>3092</v>
       </c>
       <c r="C151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3131</v>
+        <v>3093</v>
       </c>
       <c r="C152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3139</v>
+        <v>3125</v>
       </c>
       <c r="C153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3088</v>
+        <v>3126</v>
       </c>
       <c r="C154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3101</v>
+        <v>3131</v>
       </c>
       <c r="C155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3083</v>
+        <v>3139</v>
       </c>
       <c r="C156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3164</v>
+        <v>3088</v>
       </c>
       <c r="C157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3166</v>
+        <v>3101</v>
       </c>
       <c r="C158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3170</v>
+        <v>3083</v>
       </c>
       <c r="C159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="C160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3197</v>
+        <v>3166</v>
       </c>
       <c r="C161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3208</v>
+        <v>3170</v>
       </c>
       <c r="C162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>3209</v>
+        <v>3159</v>
       </c>
       <c r="C163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3220</v>
+        <v>3197</v>
       </c>
       <c r="C164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>3204</v>
+        <v>3208</v>
       </c>
       <c r="C165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3156</v>
+        <v>3209</v>
       </c>
       <c r="C166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3176</v>
+        <v>3220</v>
       </c>
       <c r="C167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3162</v>
+        <v>3204</v>
       </c>
       <c r="C168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>3191</v>
+        <v>3156</v>
       </c>
       <c r="C169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3217</v>
+        <v>3176</v>
       </c>
       <c r="C170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>3267</v>
+        <v>3162</v>
       </c>
       <c r="C171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>3256</v>
+        <v>3191</v>
       </c>
       <c r="C172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>3226</v>
+        <v>3217</v>
       </c>
       <c r="C173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3209</v>
+        <v>3267</v>
       </c>
       <c r="C174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3220</v>
+        <v>3256</v>
       </c>
       <c r="C175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3252</v>
+        <v>3226</v>
       </c>
       <c r="C176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3282</v>
+        <v>3209</v>
       </c>
       <c r="C177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3259</v>
+        <v>3220</v>
       </c>
       <c r="C178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>3282</v>
+        <v>3252</v>
       </c>
       <c r="C179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>3296</v>
+        <v>3282</v>
       </c>
       <c r="C180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3328</v>
+        <v>3259</v>
       </c>
       <c r="C181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>3329</v>
+        <v>3282</v>
       </c>
       <c r="C182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3339</v>
+        <v>3296</v>
       </c>
       <c r="C183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3273</v>
+        <v>3328</v>
       </c>
       <c r="C184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3340</v>
+        <v>3329</v>
       </c>
       <c r="C185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>3361</v>
+        <v>3339</v>
       </c>
       <c r="C186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3358</v>
+        <v>3273</v>
       </c>
       <c r="C187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>3315</v>
+        <v>3340</v>
       </c>
       <c r="C188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>3313</v>
+        <v>3361</v>
       </c>
       <c r="C189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>3290</v>
+        <v>3358</v>
       </c>
       <c r="C190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>3262</v>
+        <v>3315</v>
       </c>
       <c r="C191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>3265</v>
+        <v>3313</v>
       </c>
       <c r="C192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="C193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3275</v>
+        <v>3262</v>
       </c>
       <c r="C194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3331</v>
+        <v>3265</v>
       </c>
       <c r="C195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>3352</v>
+        <v>3292</v>
       </c>
       <c r="C196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3357</v>
+        <v>3275</v>
       </c>
       <c r="C197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3320</v>
+        <v>3331</v>
       </c>
       <c r="C198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3382</v>
+        <v>3352</v>
       </c>
       <c r="C199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>3377</v>
+        <v>3357</v>
       </c>
       <c r="C200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3352</v>
+        <v>3320</v>
       </c>
       <c r="C201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3337</v>
+        <v>3382</v>
       </c>
       <c r="C202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>3354</v>
+        <v>3377</v>
       </c>
       <c r="C203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="C204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>3372</v>
+        <v>3337</v>
       </c>
       <c r="C205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>3327</v>
+        <v>3354</v>
       </c>
       <c r="C206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3290</v>
+        <v>3354</v>
       </c>
       <c r="C207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>3283</v>
+        <v>3372</v>
       </c>
       <c r="C208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>3249</v>
+        <v>3327</v>
       </c>
       <c r="C209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>3202</v>
+        <v>3290</v>
       </c>
       <c r="C210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>3205</v>
+        <v>3283</v>
       </c>
       <c r="C211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3211</v>
+        <v>3249</v>
       </c>
       <c r="C212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3239</v>
+        <v>3202</v>
       </c>
       <c r="C213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>3252</v>
+        <v>3205</v>
       </c>
       <c r="C214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>3272</v>
+        <v>3211</v>
       </c>
       <c r="C215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>3306</v>
+        <v>3239</v>
       </c>
       <c r="C216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>3309</v>
+        <v>3252</v>
       </c>
       <c r="C217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>3317</v>
+        <v>3272</v>
       </c>
       <c r="C218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>3268</v>
+        <v>3306</v>
       </c>
       <c r="C219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>3305</v>
+        <v>3309</v>
       </c>
       <c r="C220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>3300</v>
+        <v>3317</v>
       </c>
       <c r="C221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>3314</v>
+        <v>3268</v>
       </c>
       <c r="C222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>3290</v>
+        <v>3305</v>
       </c>
       <c r="C223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>3279</v>
+        <v>3300</v>
       </c>
       <c r="C224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>3287</v>
+        <v>3314</v>
       </c>
       <c r="C225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>3312</v>
+        <v>3290</v>
       </c>
       <c r="C226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>3364</v>
+        <v>3279</v>
       </c>
       <c r="C227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>3362</v>
+        <v>3287</v>
       </c>
       <c r="C228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>3360</v>
+        <v>3312</v>
       </c>
       <c r="C229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>3428</v>
+        <v>3364</v>
       </c>
       <c r="C230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>3413</v>
+        <v>3362</v>
       </c>
       <c r="C231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>3402</v>
+        <v>3360</v>
       </c>
       <c r="C232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>3330</v>
+        <v>3428</v>
       </c>
       <c r="C233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>3311</v>
+        <v>3413</v>
       </c>
       <c r="C234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>3280</v>
+        <v>3402</v>
       </c>
       <c r="C235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3339</v>
+        <v>3330</v>
       </c>
       <c r="C236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>3352</v>
+        <v>3311</v>
       </c>
       <c r="C237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>3333</v>
+        <v>3280</v>
       </c>
       <c r="C238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>3318</v>
+        <v>3339</v>
       </c>
       <c r="C239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>3312</v>
+        <v>3352</v>
       </c>
       <c r="C240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>3309</v>
+        <v>3333</v>
       </c>
       <c r="C241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>3303</v>
+        <v>3318</v>
       </c>
       <c r="C242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>3297</v>
+        <v>3312</v>
       </c>
       <c r="C243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>3277</v>
+        <v>3309</v>
       </c>
       <c r="C244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>3332</v>
+        <v>3303</v>
       </c>
       <c r="C245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>3319</v>
+        <v>3297</v>
       </c>
       <c r="C246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>3322</v>
+        <v>3277</v>
       </c>
       <c r="C247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>3279</v>
+        <v>3332</v>
       </c>
       <c r="C248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>3232</v>
+        <v>3319</v>
       </c>
       <c r="C249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>3313</v>
+        <v>3322</v>
       </c>
       <c r="C250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>3337</v>
+        <v>3279</v>
       </c>
       <c r="C251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>3344</v>
+        <v>3232</v>
       </c>
       <c r="C252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>3331</v>
+        <v>3313</v>
       </c>
       <c r="C253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>3367</v>
+        <v>3337</v>
       </c>
       <c r="C254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>3436</v>
+        <v>3344</v>
       </c>
       <c r="C255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>3392</v>
+        <v>3331</v>
       </c>
       <c r="C256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>3433</v>
+        <v>3367</v>
       </c>
       <c r="C257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>3425</v>
+        <v>3436</v>
       </c>
       <c r="C258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>3393</v>
+        <v>3392</v>
       </c>
       <c r="C259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>3427</v>
+        <v>3433</v>
       </c>
       <c r="C260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>3442</v>
+        <v>3425</v>
       </c>
       <c r="C261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>3422</v>
+        <v>3393</v>
       </c>
       <c r="C262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>3451</v>
+        <v>3427</v>
       </c>
       <c r="C263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>3376</v>
+        <v>3442</v>
       </c>
       <c r="C264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>3330</v>
+        <v>3422</v>
       </c>
       <c r="C265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>3316</v>
+        <v>3451</v>
       </c>
       <c r="C266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>3349</v>
+        <v>3376</v>
       </c>
       <c r="C267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>3358</v>
+        <v>3330</v>
       </c>
       <c r="C268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>3336</v>
+        <v>3316</v>
       </c>
       <c r="C269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3300</v>
+        <v>3349</v>
       </c>
       <c r="C270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>3447</v>
+        <v>3358</v>
       </c>
       <c r="C271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>3467</v>
+        <v>3336</v>
       </c>
       <c r="C272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3502</v>
+        <v>3300</v>
       </c>
       <c r="C273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>3468</v>
+        <v>3447</v>
       </c>
       <c r="C274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>3442</v>
+        <v>3467</v>
       </c>
       <c r="C275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>3466</v>
+        <v>3502</v>
       </c>
       <c r="C276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>3486</v>
+        <v>3468</v>
       </c>
       <c r="C277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>3551</v>
+        <v>3442</v>
       </c>
       <c r="C278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>3341</v>
+        <v>3466</v>
       </c>
       <c r="C279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>3281</v>
+        <v>3486</v>
       </c>
       <c r="C280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>3225</v>
+        <v>3551</v>
       </c>
       <c r="C281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>3217</v>
+        <v>3341</v>
       </c>
       <c r="C282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>3087</v>
+        <v>3281</v>
       </c>
       <c r="C283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>3165</v>
+        <v>3225</v>
       </c>
       <c r="C284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>3206</v>
+        <v>3217</v>
       </c>
       <c r="C285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>3150</v>
+        <v>3087</v>
       </c>
       <c r="C286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>3190</v>
+        <v>3165</v>
       </c>
       <c r="C287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/09/12</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>3185</v>
+        <v>3206</v>
       </c>
       <c r="C288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/09/11</t>
+          <t>2024/09/18</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>3137</v>
+        <v>3150</v>
       </c>
       <c r="C289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/09/10</t>
+          <t>2024/09/13</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>3080</v>
+        <v>3190</v>
       </c>
       <c r="C290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/09/09</t>
+          <t>2024/09/12</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>3078</v>
+        <v>3185</v>
       </c>
       <c r="C291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/09/06</t>
+          <t>2024/09/11</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3051</v>
+        <v>3137</v>
       </c>
       <c r="C292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/09/05</t>
+          <t>2024/09/10</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="C293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/04</t>
+          <t>2024/09/09</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>3109</v>
+        <v>3078</v>
       </c>
       <c r="C294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/03</t>
+          <t>2024/09/06</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>3149</v>
+        <v>3051</v>
       </c>
       <c r="C295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/02</t>
+          <t>2024/09/05</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>3178</v>
+        <v>3083</v>
       </c>
       <c r="C296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/08/30</t>
+          <t>2024/09/04</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>3222</v>
+        <v>3109</v>
       </c>
       <c r="C297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/08/29</t>
+          <t>2024/09/03</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>3259</v>
+        <v>3149</v>
       </c>
       <c r="C298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/08/28</t>
+          <t>2024/09/02</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>3264</v>
+        <v>3178</v>
       </c>
       <c r="C299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/08/27</t>
+          <t>2024/08/30</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>3249</v>
+        <v>3222</v>
       </c>
       <c r="C300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>2024/08/26</t>
+          <t>2024/08/29</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="C301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2024/08/23</t>
+          <t>2024/08/28</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>3154</v>
+        <v>3264</v>
       </c>
       <c r="C302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>2024/08/22</t>
+          <t>2024/08/27</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>3174</v>
+        <v>3249</v>
       </c>
       <c r="C303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>2024/08/21</t>
+          <t>2024/08/26</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>3235</v>
+        <v>3264</v>
       </c>
       <c r="C304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>2024/08/20</t>
+          <t>2024/08/23</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>3172</v>
+        <v>3154</v>
       </c>
       <c r="C305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>2024/08/19</t>
+          <t>2024/08/22</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>3156</v>
+        <v>3174</v>
       </c>
       <c r="C306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>2024/08/16</t>
+          <t>2024/08/21</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>3078</v>
+        <v>3235</v>
       </c>
       <c r="C307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>2024/08/15</t>
+          <t>2024/08/20</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>3119</v>
+        <v>3172</v>
       </c>
       <c r="C308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2024/08/14</t>
+          <t>2024/08/19</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>3099</v>
+        <v>3156</v>
       </c>
       <c r="C309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>2024/08/13</t>
+          <t>2024/08/16</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>3173</v>
+        <v>3078</v>
       </c>
       <c r="C310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>2024/08/12</t>
+          <t>2024/08/15</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>3222</v>
+        <v>3119</v>
       </c>
       <c r="C311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>2024/08/09</t>
+          <t>2024/08/14</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>3277</v>
+        <v>3099</v>
       </c>
       <c r="C312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>2024/08/08</t>
+          <t>2024/08/13</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>3254</v>
+        <v>3173</v>
       </c>
       <c r="C313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>2024/08/07</t>
+          <t>2024/08/12</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>3304</v>
+        <v>3222</v>
       </c>
       <c r="C314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>2024/08/06</t>
+          <t>2024/08/09</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>3306</v>
+        <v>3277</v>
       </c>
       <c r="C315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>2024/08/05</t>
+          <t>2024/08/08</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>3367</v>
+        <v>3254</v>
       </c>
       <c r="C316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>2024/08/02</t>
+          <t>2024/08/07</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>3379</v>
+        <v>3304</v>
       </c>
       <c r="C317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>2024/08/01</t>
+          <t>2024/08/06</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>3355</v>
+        <v>3306</v>
       </c>
       <c r="C318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/05</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>3326</v>
+        <v>3367</v>
       </c>
       <c r="C319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>2024/07/30</t>
+          <t>2024/08/02</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>3301</v>
+        <v>3379</v>
       </c>
       <c r="C320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>2024/07/29</t>
+          <t>2024/08/01</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>3363</v>
+        <v>3355</v>
       </c>
       <c r="C321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>2024/07/26</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>3371</v>
+        <v>3326</v>
       </c>
       <c r="C322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>2024/07/25</t>
+          <t>2024/07/30</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>3329</v>
+        <v>3301</v>
       </c>
       <c r="C323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>2024/07/24</t>
+          <t>2024/07/29</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>3391</v>
+        <v>3363</v>
       </c>
       <c r="C324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>2024/07/23</t>
+          <t>2024/07/26</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>3397</v>
+        <v>3371</v>
       </c>
       <c r="C325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>2024/07/22</t>
+          <t>2024/07/25</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>3451</v>
+        <v>3329</v>
       </c>
       <c r="C326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>2024/07/19</t>
+          <t>2024/07/24</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>3479</v>
+        <v>3391</v>
       </c>
       <c r="C327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>2024/07/18</t>
+          <t>2024/07/23</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>3492</v>
+        <v>3397</v>
       </c>
       <c r="C328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>2024/07/17</t>
+          <t>2024/07/22</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>3487</v>
+        <v>3451</v>
       </c>
       <c r="C329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>2024/07/16</t>
+          <t>2024/07/19</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>3544</v>
+        <v>3479</v>
       </c>
       <c r="C330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>2024/07/15</t>
+          <t>2024/07/18</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>3551</v>
+        <v>3492</v>
       </c>
       <c r="C331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>2024/07/12</t>
+          <t>2024/07/17</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>3523</v>
+        <v>3487</v>
       </c>
       <c r="C332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>2024/07/11</t>
+          <t>2024/07/16</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>3514</v>
+        <v>3544</v>
       </c>
       <c r="C333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>2024/07/10</t>
+          <t>2024/07/15</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>3478</v>
+        <v>3551</v>
       </c>
       <c r="C334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>2024/07/09</t>
+          <t>2024/07/12</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>3515</v>
+        <v>3523</v>
       </c>
       <c r="C335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>2024/07/08</t>
+          <t>2024/07/11</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>3503</v>
+        <v>3514</v>
       </c>
       <c r="C336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>2024/07/05</t>
+          <t>2024/07/10</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>3553</v>
+        <v>3478</v>
       </c>
       <c r="C337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>2024/07/04</t>
+          <t>2024/07/09</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>3616</v>
+        <v>3515</v>
       </c>
       <c r="C338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>2024/07/03</t>
+          <t>2024/07/08</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>3619</v>
+        <v>3503</v>
       </c>
       <c r="C339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>2024/07/02</t>
+          <t>2024/07/05</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>3562</v>
+        <v>3553</v>
       </c>
       <c r="C340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>2024/07/01</t>
+          <t>2024/07/04</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>3562</v>
+        <v>3616</v>
       </c>
       <c r="C341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>2024/06/28</t>
+          <t>2024/07/03</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>3544</v>
+        <v>3619</v>
       </c>
       <c r="C342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>2024/06/27</t>
+          <t>2024/07/02</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>3535</v>
+        <v>3562</v>
       </c>
       <c r="C343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>2024/06/26</t>
+          <t>2024/07/01</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="C344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>2024/06/25</t>
+          <t>2024/06/28</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>3532</v>
+        <v>3544</v>
       </c>
       <c r="C345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>2024/06/24</t>
+          <t>2024/06/27</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>3532</v>
+        <v>3535</v>
       </c>
       <c r="C346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>2024/06/21</t>
+          <t>2024/06/26</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4259,139 +4259,139 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>2024/06/20</t>
+          <t>2024/06/25</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>3597</v>
+        <v>3532</v>
       </c>
       <c r="C348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>2024/06/19</t>
+          <t>2024/06/24</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>3614</v>
+        <v>3532</v>
       </c>
       <c r="C349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>2024/06/18</t>
+          <t>2024/06/21</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>3618</v>
+        <v>3563</v>
       </c>
       <c r="C350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>2024/06/17</t>
+          <t>2024/06/20</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>3613</v>
+        <v>3597</v>
       </c>
       <c r="C351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>2024/06/14</t>
+          <t>2024/06/19</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>3637</v>
+        <v>3614</v>
       </c>
       <c r="C352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>2024/06/13</t>
+          <t>2024/06/18</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="C353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>2024/06/12</t>
+          <t>2024/06/17</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>3608</v>
+        <v>3613</v>
       </c>
       <c r="C354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>2024/06/11</t>
+          <t>2024/06/14</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>3597</v>
+        <v>3637</v>
       </c>
       <c r="C355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>2024/06/07</t>
+          <t>2024/06/13</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>3655</v>
+        <v>3621</v>
       </c>
       <c r="C356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2024/06/06</t>
+          <t>2024/06/12</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>3665</v>
+        <v>3608</v>
       </c>
       <c r="C357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>2024/06/05</t>
+          <t>2024/06/11</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>3632</v>
+        <v>3597</v>
       </c>
       <c r="C358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>2024/06/04</t>
+          <t>2024/06/07</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>3646</v>
+        <v>3655</v>
       </c>
       <c r="C359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>2024/06/03</t>
+          <t>2024/06/06</t>
         </is>
       </c>
       <c r="B360" t="n">
@@ -4402,1206 +4402,1206 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/05</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>3706</v>
+        <v>3632</v>
       </c>
       <c r="C361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>2024/05/30</t>
+          <t>2024/06/04</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>3737</v>
+        <v>3646</v>
       </c>
       <c r="C362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>2024/05/29</t>
+          <t>2024/06/03</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>3753</v>
+        <v>3665</v>
       </c>
       <c r="C363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>2024/05/28</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>3745</v>
+        <v>3706</v>
       </c>
       <c r="C364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>2024/05/27</t>
+          <t>2024/05/30</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>3763</v>
+        <v>3737</v>
       </c>
       <c r="C365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>2024/05/24</t>
+          <t>2024/05/29</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>3788</v>
+        <v>3753</v>
       </c>
       <c r="C366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>2024/05/23</t>
+          <t>2024/05/28</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>3775</v>
+        <v>3745</v>
       </c>
       <c r="C367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>2024/05/22</t>
+          <t>2024/05/27</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>3800</v>
+        <v>3763</v>
       </c>
       <c r="C368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>2024/05/21</t>
+          <t>2024/05/24</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>3746</v>
+        <v>3788</v>
       </c>
       <c r="C369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>2024/05/20</t>
+          <t>2024/05/23</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>3735</v>
+        <v>3775</v>
       </c>
       <c r="C370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>2024/05/17</t>
+          <t>2024/05/22</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>3716</v>
+        <v>3800</v>
       </c>
       <c r="C371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>2024/05/16</t>
+          <t>2024/05/21</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>3703</v>
+        <v>3746</v>
       </c>
       <c r="C372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>2024/05/15</t>
+          <t>2024/05/20</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>3621</v>
+        <v>3735</v>
       </c>
       <c r="C373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>2024/05/14</t>
+          <t>2024/05/17</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>3630</v>
+        <v>3716</v>
       </c>
       <c r="C374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>2024/05/13</t>
+          <t>2024/05/16</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>3686</v>
+        <v>3703</v>
       </c>
       <c r="C375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>2024/05/10</t>
+          <t>2024/05/15</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>3662</v>
+        <v>3621</v>
       </c>
       <c r="C376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>2024/05/09</t>
+          <t>2024/05/14</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>3669</v>
+        <v>3630</v>
       </c>
       <c r="C377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>2024/05/08</t>
+          <t>2024/05/13</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>3674</v>
+        <v>3686</v>
       </c>
       <c r="C378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>2024/05/07</t>
+          <t>2024/05/10</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>3723</v>
+        <v>3662</v>
       </c>
       <c r="C379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>2024/05/06</t>
+          <t>2024/05/09</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>3735</v>
+        <v>3669</v>
       </c>
       <c r="C380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/08</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>3656</v>
+        <v>3674</v>
       </c>
       <c r="C381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>2024/04/29</t>
+          <t>2024/05/07</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>3675</v>
+        <v>3723</v>
       </c>
       <c r="C382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>2024/04/26</t>
+          <t>2024/05/06</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>3685</v>
+        <v>3735</v>
       </c>
       <c r="C383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>2024/04/25</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>3669</v>
+        <v>3656</v>
       </c>
       <c r="C384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>2024/04/24</t>
+          <t>2024/04/29</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>3681</v>
+        <v>3675</v>
       </c>
       <c r="C385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>2024/04/23</t>
+          <t>2024/04/26</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>3641</v>
+        <v>3685</v>
       </c>
       <c r="C386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>2024/04/22</t>
+          <t>2024/04/25</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="C387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>2024/04/19</t>
+          <t>2024/04/24</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>3675</v>
+        <v>3681</v>
       </c>
       <c r="C388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>2024/04/18</t>
+          <t>2024/04/23</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>3682</v>
+        <v>3641</v>
       </c>
       <c r="C389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>2024/04/17</t>
+          <t>2024/04/22</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>3682</v>
+        <v>3670</v>
       </c>
       <c r="C390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>2024/04/16</t>
+          <t>2024/04/19</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>3608</v>
+        <v>3675</v>
       </c>
       <c r="C391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>2024/04/15</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>3616</v>
+        <v>3682</v>
       </c>
       <c r="C392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>2024/04/12</t>
+          <t>2024/04/17</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>3628</v>
+        <v>3682</v>
       </c>
       <c r="C393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>2024/04/11</t>
+          <t>2024/04/16</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>3613</v>
+        <v>3608</v>
       </c>
       <c r="C394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>2024/04/10</t>
+          <t>2024/04/15</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>3583</v>
+        <v>3616</v>
       </c>
       <c r="C395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>2024/04/09</t>
+          <t>2024/04/12</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>3594</v>
+        <v>3628</v>
       </c>
       <c r="C396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>2024/04/08</t>
+          <t>2024/04/11</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>3560</v>
+        <v>3613</v>
       </c>
       <c r="C397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>2024/04/03</t>
+          <t>2024/04/10</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>3463</v>
+        <v>3583</v>
       </c>
       <c r="C398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>2024/04/02</t>
+          <t>2024/04/09</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>3463</v>
+        <v>3594</v>
       </c>
       <c r="C399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>2024/04/01</t>
+          <t>2024/04/08</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>3456</v>
+        <v>3560</v>
       </c>
       <c r="C400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>2024/03/29</t>
+          <t>2024/04/03</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>3412</v>
+        <v>3463</v>
       </c>
       <c r="C401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>2024/03/28</t>
+          <t>2024/04/02</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>3481</v>
+        <v>3463</v>
       </c>
       <c r="C402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>2024/03/27</t>
+          <t>2024/04/01</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>3479</v>
+        <v>3456</v>
       </c>
       <c r="C403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>2024/03/26</t>
+          <t>2024/03/29</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>3499</v>
+        <v>3412</v>
       </c>
       <c r="C404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>2024/03/25</t>
+          <t>2024/03/28</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>3585</v>
+        <v>3481</v>
       </c>
       <c r="C405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>2024/03/22</t>
+          <t>2024/03/27</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>3612</v>
+        <v>3479</v>
       </c>
       <c r="C406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>2024/03/21</t>
+          <t>2024/03/26</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>3616</v>
+        <v>3499</v>
       </c>
       <c r="C407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>2024/03/20</t>
+          <t>2024/03/25</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>3570</v>
+        <v>3585</v>
       </c>
       <c r="C408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>2024/03/19</t>
+          <t>2024/03/22</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>3573</v>
+        <v>3612</v>
       </c>
       <c r="C409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>2024/03/18</t>
+          <t>2024/03/21</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>3513</v>
+        <v>3616</v>
       </c>
       <c r="C410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>2024/03/15</t>
+          <t>2024/03/20</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>3490</v>
+        <v>3570</v>
       </c>
       <c r="C411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>2024/03/14</t>
+          <t>2024/03/19</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>3506</v>
+        <v>3573</v>
       </c>
       <c r="C412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>2024/03/13</t>
+          <t>2024/03/18</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>3583</v>
+        <v>3513</v>
       </c>
       <c r="C413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>2024/03/12</t>
+          <t>2024/03/15</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>3636</v>
+        <v>3490</v>
       </c>
       <c r="C414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>2024/03/11</t>
+          <t>2024/03/14</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>3606</v>
+        <v>3506</v>
       </c>
       <c r="C415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>2024/03/08</t>
+          <t>2024/03/13</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>3691</v>
+        <v>3583</v>
       </c>
       <c r="C416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>2024/03/07</t>
+          <t>2024/03/12</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>3708</v>
+        <v>3636</v>
       </c>
       <c r="C417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>2024/03/06</t>
+          <t>2024/03/11</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>3712</v>
+        <v>3606</v>
       </c>
       <c r="C418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>2024/03/05</t>
+          <t>2024/03/08</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>3723</v>
+        <v>3691</v>
       </c>
       <c r="C419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>2024/03/04</t>
+          <t>2024/03/07</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>3762</v>
+        <v>3708</v>
       </c>
       <c r="C420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>2024/03/01</t>
+          <t>2024/03/06</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>3763</v>
+        <v>3712</v>
       </c>
       <c r="C421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/05</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>3788</v>
+        <v>3723</v>
       </c>
       <c r="C422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>2024/02/28</t>
+          <t>2024/03/04</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>3810</v>
+        <v>3762</v>
       </c>
       <c r="C423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>2024/02/27</t>
+          <t>2024/03/01</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>3824</v>
+        <v>3763</v>
       </c>
       <c r="C424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>2024/02/26</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>3749</v>
+        <v>3788</v>
       </c>
       <c r="C425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>2024/02/23</t>
+          <t>2024/02/28</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>3790</v>
+        <v>3810</v>
       </c>
       <c r="C426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>2024/02/22</t>
+          <t>2024/02/27</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>3797</v>
+        <v>3824</v>
       </c>
       <c r="C427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>2024/02/21</t>
+          <t>2024/02/26</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>3791</v>
+        <v>3749</v>
       </c>
       <c r="C428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>2024/02/20</t>
+          <t>2024/02/23</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>3753</v>
+        <v>3790</v>
       </c>
       <c r="C429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2024/02/19</t>
+          <t>2024/02/22</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>3808</v>
+        <v>3797</v>
       </c>
       <c r="C430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>2024/02/08</t>
+          <t>2024/02/21</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>3854</v>
+        <v>3791</v>
       </c>
       <c r="C431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>2024/02/07</t>
+          <t>2024/02/20</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>3840</v>
+        <v>3753</v>
       </c>
       <c r="C432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>2024/02/06</t>
+          <t>2024/02/19</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>3836</v>
+        <v>3808</v>
       </c>
       <c r="C433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>2024/02/05</t>
+          <t>2024/02/08</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>3833</v>
+        <v>3854</v>
       </c>
       <c r="C434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>2024/02/02</t>
+          <t>2024/02/07</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>3825</v>
+        <v>3840</v>
       </c>
       <c r="C435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>2024/02/01</t>
+          <t>2024/02/06</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>3868</v>
+        <v>3836</v>
       </c>
       <c r="C436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/05</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>3869</v>
+        <v>3833</v>
       </c>
       <c r="C437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>2024/01/30</t>
+          <t>2024/02/02</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>3913</v>
+        <v>3825</v>
       </c>
       <c r="C438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>2024/01/29</t>
+          <t>2024/02/01</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>3968</v>
+        <v>3868</v>
       </c>
       <c r="C439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>2024/01/26</t>
+          <t>2024/01/31</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>3973</v>
+        <v>3869</v>
       </c>
       <c r="C440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>2024/01/25</t>
+          <t>2024/01/30</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>3967</v>
+        <v>3913</v>
       </c>
       <c r="C441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>2024/01/24</t>
+          <t>2024/01/29</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>3955</v>
+        <v>3968</v>
       </c>
       <c r="C442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>2024/01/23</t>
+          <t>2024/01/26</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>3932</v>
+        <v>3973</v>
       </c>
       <c r="C443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>2024/01/22</t>
+          <t>2024/01/25</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>3902</v>
+        <v>3967</v>
       </c>
       <c r="C444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>2024/01/19</t>
+          <t>2024/01/24</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>3915</v>
+        <v>3955</v>
       </c>
       <c r="C445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>2024/01/18</t>
+          <t>2024/01/23</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>3913</v>
+        <v>3932</v>
       </c>
       <c r="C446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>2024/01/17</t>
+          <t>2024/01/22</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>3858</v>
+        <v>3902</v>
       </c>
       <c r="C447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>2024/01/16</t>
+          <t>2024/01/19</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>3899</v>
+        <v>3915</v>
       </c>
       <c r="C448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>2024/01/15</t>
+          <t>2024/01/18</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>3896</v>
+        <v>3913</v>
       </c>
       <c r="C449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>2024/01/12</t>
+          <t>2024/01/17</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>3902</v>
+        <v>3858</v>
       </c>
       <c r="C450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>2024/01/11</t>
+          <t>2024/01/16</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>3926</v>
+        <v>3899</v>
       </c>
       <c r="C451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>2024/01/10</t>
+          <t>2024/01/15</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>3887</v>
+        <v>3896</v>
       </c>
       <c r="C452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>2024/01/09</t>
+          <t>2024/01/12</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>3943</v>
+        <v>3902</v>
       </c>
       <c r="C453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>2024/01/08</t>
+          <t>2024/01/11</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>3950</v>
+        <v>3926</v>
       </c>
       <c r="C454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>2024/01/05</t>
+          <t>2024/01/10</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>3979</v>
+        <v>3887</v>
       </c>
       <c r="C455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>2024/01/04</t>
+          <t>2024/01/09</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>4046</v>
+        <v>3943</v>
       </c>
       <c r="C456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>2024/01/03</t>
+          <t>2024/01/08</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>4055</v>
+        <v>3950</v>
       </c>
       <c r="C457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>2024/01/02</t>
+          <t>2024/01/05</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>4047</v>
+        <v>3979</v>
       </c>
       <c r="C458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>2023/12/29</t>
+          <t>2024/01/04</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>4002</v>
+        <v>4046</v>
       </c>
       <c r="C459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>2023/12/28</t>
+          <t>2024/01/03</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>3996</v>
+        <v>4055</v>
       </c>
       <c r="C460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>2023/12/27</t>
+          <t>2024/01/02</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>4023</v>
+        <v>4047</v>
       </c>
       <c r="C461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>2023/12/26</t>
+          <t>2023/12/29</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>4023</v>
+        <v>4002</v>
       </c>
       <c r="C462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>2023/12/25</t>
+          <t>2023/12/28</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>3998</v>
+        <v>3996</v>
       </c>
       <c r="C463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>2023/12/22</t>
+          <t>2023/12/27</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>4004</v>
+        <v>4023</v>
       </c>
       <c r="C464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>2023/12/21</t>
+          <t>2023/12/26</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>3988</v>
+        <v>4023</v>
       </c>
       <c r="C465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>2023/12/20</t>
+          <t>2023/12/25</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>3940</v>
+        <v>3998</v>
       </c>
       <c r="C466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>2023/12/19</t>
+          <t>2023/12/22</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>3925</v>
+        <v>4004</v>
       </c>
       <c r="C467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>2023/12/18</t>
+          <t>2023/12/21</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>3933</v>
+        <v>3988</v>
       </c>
       <c r="C468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>2023/12/15</t>
+          <t>2023/12/20</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>3915</v>
+        <v>3940</v>
       </c>
       <c r="C469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>2023/12/14</t>
+          <t>2023/12/19</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -5612,1454 +5612,1487 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>2023/12/13</t>
+          <t>2023/12/18</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>3942</v>
+        <v>3933</v>
       </c>
       <c r="C471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>2023/12/12</t>
+          <t>2023/12/15</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>4060</v>
+        <v>3915</v>
       </c>
       <c r="C472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>2023/12/11</t>
+          <t>2023/12/14</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>4025</v>
+        <v>3925</v>
       </c>
       <c r="C473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>2023/12/08</t>
+          <t>2023/12/13</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>4042</v>
+        <v>3942</v>
       </c>
       <c r="C474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>2023/12/07</t>
+          <t>2023/12/12</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>4011</v>
+        <v>4060</v>
       </c>
       <c r="C475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>2023/12/06</t>
+          <t>2023/12/11</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>3918</v>
+        <v>4025</v>
       </c>
       <c r="C476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>2023/12/05</t>
+          <t>2023/12/08</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>3870</v>
+        <v>4042</v>
       </c>
       <c r="C477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>2023/12/04</t>
+          <t>2023/12/07</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>3871</v>
+        <v>4011</v>
       </c>
       <c r="C478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>2023/12/01</t>
+          <t>2023/12/06</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>3923</v>
+        <v>3918</v>
       </c>
       <c r="C479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/05</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>3913</v>
+        <v>3870</v>
       </c>
       <c r="C480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>2023/11/29</t>
+          <t>2023/12/04</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>3896</v>
+        <v>3871</v>
       </c>
       <c r="C481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>2023/11/28</t>
+          <t>2023/12/01</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>3893</v>
+        <v>3923</v>
       </c>
       <c r="C482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>2023/11/27</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>3959</v>
+        <v>3913</v>
       </c>
       <c r="C483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>2023/11/24</t>
+          <t>2023/11/29</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>3976</v>
+        <v>3896</v>
       </c>
       <c r="C484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>2023/11/23</t>
+          <t>2023/11/28</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>3934</v>
+        <v>3893</v>
       </c>
       <c r="C485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>2023/11/22</t>
+          <t>2023/11/27</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>4001</v>
+        <v>3959</v>
       </c>
       <c r="C486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>2023/11/21</t>
+          <t>2023/11/24</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>3983</v>
+        <v>3976</v>
       </c>
       <c r="C487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>2023/11/20</t>
+          <t>2023/11/23</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>3983</v>
+        <v>3934</v>
       </c>
       <c r="C488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>2023/11/17</t>
+          <t>2023/11/22</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>3929</v>
+        <v>4001</v>
       </c>
       <c r="C489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>2023/11/16</t>
+          <t>2023/11/21</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>3972</v>
+        <v>3983</v>
       </c>
       <c r="C490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>2023/11/15</t>
+          <t>2023/11/20</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>3920</v>
+        <v>3983</v>
       </c>
       <c r="C491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>2023/11/14</t>
+          <t>2023/11/17</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>3856</v>
+        <v>3929</v>
       </c>
       <c r="C492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>2023/11/13</t>
+          <t>2023/11/16</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>3872</v>
+        <v>3972</v>
       </c>
       <c r="C493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>2023/11/10</t>
+          <t>2023/11/15</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>3879</v>
+        <v>3920</v>
       </c>
       <c r="C494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>2023/11/09</t>
+          <t>2023/11/14</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>3853</v>
+        <v>3856</v>
       </c>
       <c r="C495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>2023/11/08</t>
+          <t>2023/11/13</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>3848</v>
+        <v>3872</v>
       </c>
       <c r="C496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>2023/11/07</t>
+          <t>2023/11/10</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>3791</v>
+        <v>3879</v>
       </c>
       <c r="C497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>2023/11/06</t>
+          <t>2023/11/09</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>3805</v>
+        <v>3853</v>
       </c>
       <c r="C498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>2023/11/03</t>
+          <t>2023/11/08</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>3805</v>
+        <v>3848</v>
       </c>
       <c r="C499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>2023/11/02</t>
+          <t>2023/11/07</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>3756</v>
+        <v>3791</v>
       </c>
       <c r="C500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>2023/11/01</t>
+          <t>2023/11/06</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>3749</v>
+        <v>3805</v>
       </c>
       <c r="C501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/03</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>3733</v>
+        <v>3805</v>
       </c>
       <c r="C502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>2023/10/30</t>
+          <t>2023/11/02</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>3740</v>
+        <v>3756</v>
       </c>
       <c r="C503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>2023/10/27</t>
+          <t>2023/11/01</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>3724</v>
+        <v>3749</v>
       </c>
       <c r="C504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>2023/10/26</t>
+          <t>2023/10/31</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>3685</v>
+        <v>3733</v>
       </c>
       <c r="C505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>2023/10/25</t>
+          <t>2023/10/30</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>3673</v>
+        <v>3740</v>
       </c>
       <c r="C506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>2023/10/24</t>
+          <t>2023/10/27</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>3630</v>
+        <v>3724</v>
       </c>
       <c r="C507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>2023/10/23</t>
+          <t>2023/10/26</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>3572</v>
+        <v>3685</v>
       </c>
       <c r="C508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>2023/10/20</t>
+          <t>2023/10/25</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>3610</v>
+        <v>3673</v>
       </c>
       <c r="C509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>2023/10/19</t>
+          <t>2023/10/24</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>3644</v>
+        <v>3630</v>
       </c>
       <c r="C510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>2023/10/18</t>
+          <t>2023/10/23</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>3615</v>
+        <v>3572</v>
       </c>
       <c r="C511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>2023/10/17</t>
+          <t>2023/10/20</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>3647</v>
+        <v>3610</v>
       </c>
       <c r="C512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>2023/10/16</t>
+          <t>2023/10/19</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>3657</v>
+        <v>3644</v>
       </c>
       <c r="C513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>2023/10/13</t>
+          <t>2023/10/18</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>3620</v>
+        <v>3615</v>
       </c>
       <c r="C514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>2023/10/12</t>
+          <t>2023/10/17</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>3627</v>
+        <v>3647</v>
       </c>
       <c r="C515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>2023/10/11</t>
+          <t>2023/10/16</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>3619</v>
+        <v>3657</v>
       </c>
       <c r="C516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>2023/10/10</t>
+          <t>2023/10/13</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>3610</v>
+        <v>3620</v>
       </c>
       <c r="C517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>2023/10/09</t>
+          <t>2023/10/12</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>3638</v>
+        <v>3627</v>
       </c>
       <c r="C518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>2023/09/28</t>
+          <t>2023/10/11</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>3690</v>
+        <v>3619</v>
       </c>
       <c r="C519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>2023/09/27</t>
+          <t>2023/10/10</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>3682</v>
+        <v>3610</v>
       </c>
       <c r="C520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>2023/09/26</t>
+          <t>2023/10/09</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>3675</v>
+        <v>3638</v>
       </c>
       <c r="C521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>2023/09/25</t>
+          <t>2023/09/28</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>3716</v>
+        <v>3690</v>
       </c>
       <c r="C522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>2023/09/22</t>
+          <t>2023/09/27</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>3779</v>
+        <v>3682</v>
       </c>
       <c r="C523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>2023/09/21</t>
+          <t>2023/09/26</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>3762</v>
+        <v>3675</v>
       </c>
       <c r="C524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>2023/09/20</t>
+          <t>2023/09/25</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>3842</v>
+        <v>3716</v>
       </c>
       <c r="C525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>2023/09/19</t>
+          <t>2023/09/22</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>3831</v>
+        <v>3779</v>
       </c>
       <c r="C526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>2023/09/18</t>
+          <t>2023/09/21</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>3842</v>
+        <v>3762</v>
       </c>
       <c r="C527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>2023/09/15</t>
+          <t>2023/09/20</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>3824</v>
+        <v>3842</v>
       </c>
       <c r="C528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>2023/09/14</t>
+          <t>2023/09/19</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>3794</v>
+        <v>3831</v>
       </c>
       <c r="C529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>2023/09/13</t>
+          <t>2023/09/18</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>3777</v>
+        <v>3842</v>
       </c>
       <c r="C530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>2023/09/12</t>
+          <t>2023/09/15</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>3791</v>
+        <v>3824</v>
       </c>
       <c r="C531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>2023/09/11</t>
+          <t>2023/09/14</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>3759</v>
+        <v>3794</v>
       </c>
       <c r="C532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>2023/09/08</t>
+          <t>2023/09/13</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>3717</v>
+        <v>3777</v>
       </c>
       <c r="C533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>2023/09/07</t>
+          <t>2023/09/12</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>3795</v>
+        <v>3791</v>
       </c>
       <c r="C534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>2023/09/06</t>
+          <t>2023/09/11</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>3817</v>
+        <v>3759</v>
       </c>
       <c r="C535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>2023/09/05</t>
+          <t>2023/09/08</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>3799</v>
+        <v>3717</v>
       </c>
       <c r="C536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>2023/09/04</t>
+          <t>2023/09/07</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>3770</v>
+        <v>3795</v>
       </c>
       <c r="C537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>2023/09/01</t>
+          <t>2023/09/06</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>3778</v>
+        <v>3817</v>
       </c>
       <c r="C538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>2023/08/31</t>
+          <t>2023/09/05</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>3740</v>
+        <v>3799</v>
       </c>
       <c r="C539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>2023/08/30</t>
+          <t>2023/09/04</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>3713</v>
+        <v>3770</v>
       </c>
       <c r="C540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>2023/08/29</t>
+          <t>2023/09/01</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>3678</v>
+        <v>3778</v>
       </c>
       <c r="C541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>2023/08/28</t>
+          <t>2023/08/31</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>3667</v>
+        <v>3740</v>
       </c>
       <c r="C542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>2023/08/25</t>
+          <t>2023/08/30</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>3716</v>
+        <v>3713</v>
       </c>
       <c r="C543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>2023/08/24</t>
+          <t>2023/08/29</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>3688</v>
+        <v>3678</v>
       </c>
       <c r="C544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>2023/08/23</t>
+          <t>2023/08/28</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>3723</v>
+        <v>3667</v>
       </c>
       <c r="C545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>2023/08/22</t>
+          <t>2023/08/25</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="C546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>2023/08/21</t>
+          <t>2023/08/24</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>3666</v>
+        <v>3688</v>
       </c>
       <c r="C547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>2023/08/18</t>
+          <t>2023/08/23</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>3700</v>
+        <v>3723</v>
       </c>
       <c r="C548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>2023/08/17</t>
+          <t>2023/08/22</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="C549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>2023/08/16</t>
+          <t>2023/08/21</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>3713</v>
+        <v>3666</v>
       </c>
       <c r="C550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>2023/08/15</t>
+          <t>2023/08/18</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>3694</v>
+        <v>3700</v>
       </c>
       <c r="C551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>2023/08/14</t>
+          <t>2023/08/17</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>3641</v>
+        <v>3726</v>
       </c>
       <c r="C552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>2023/08/11</t>
+          <t>2023/08/16</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>3691</v>
+        <v>3713</v>
       </c>
       <c r="C553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>2023/08/10</t>
+          <t>2023/08/15</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>3671</v>
+        <v>3694</v>
       </c>
       <c r="C554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>2023/08/09</t>
+          <t>2023/08/14</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>3700</v>
+        <v>3641</v>
       </c>
       <c r="C555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>2023/08/08</t>
+          <t>2023/08/11</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="C556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>2023/08/07</t>
+          <t>2023/08/10</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>3732</v>
+        <v>3671</v>
       </c>
       <c r="C557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>2023/08/04</t>
+          <t>2023/08/09</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>3736</v>
+        <v>3700</v>
       </c>
       <c r="C558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>2023/08/03</t>
+          <t>2023/08/08</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>3728</v>
+        <v>3692</v>
       </c>
       <c r="C559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>2023/08/02</t>
+          <t>2023/08/07</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>3801</v>
+        <v>3732</v>
       </c>
       <c r="C560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>2023/08/01</t>
+          <t>2023/08/04</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>3862</v>
+        <v>3736</v>
       </c>
       <c r="C561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>2023/07/31</t>
+          <t>2023/08/03</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>3847</v>
+        <v>3728</v>
       </c>
       <c r="C562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>2023/07/28</t>
+          <t>2023/08/02</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>3851</v>
+        <v>3801</v>
       </c>
       <c r="C563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>2023/07/27</t>
+          <t>2023/08/01</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>3861</v>
+        <v>3862</v>
       </c>
       <c r="C564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>2023/07/26</t>
+          <t>2023/07/31</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>3851</v>
+        <v>3847</v>
       </c>
       <c r="C565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>2023/07/25</t>
+          <t>2023/07/28</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>3857</v>
+        <v>3851</v>
       </c>
       <c r="C566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>2023/07/24</t>
+          <t>2023/07/27</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>3793</v>
+        <v>3861</v>
       </c>
       <c r="C567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>2023/07/21</t>
+          <t>2023/07/26</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>3823</v>
+        <v>3851</v>
       </c>
       <c r="C568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>2023/07/20</t>
+          <t>2023/07/25</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>3784</v>
+        <v>3857</v>
       </c>
       <c r="C569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>2023/07/19</t>
+          <t>2023/07/24</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>3741</v>
+        <v>3793</v>
       </c>
       <c r="C570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>2023/07/18</t>
+          <t>2023/07/21</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>3749</v>
+        <v>3823</v>
       </c>
       <c r="C571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>2023/07/17</t>
+          <t>2023/07/20</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>3687</v>
+        <v>3784</v>
       </c>
       <c r="C572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>2023/07/14</t>
+          <t>2023/07/19</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>3774</v>
+        <v>3741</v>
       </c>
       <c r="C573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>2023/07/13</t>
+          <t>2023/07/18</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>3727</v>
+        <v>3749</v>
       </c>
       <c r="C574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>2023/07/12</t>
+          <t>2023/07/17</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>3716</v>
+        <v>3687</v>
       </c>
       <c r="C575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>2023/07/11</t>
+          <t>2023/07/14</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>3679</v>
+        <v>3774</v>
       </c>
       <c r="C576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>2023/07/10</t>
+          <t>2023/07/13</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>3654</v>
+        <v>3727</v>
       </c>
       <c r="C577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>2023/07/07</t>
+          <t>2023/07/12</t>
         </is>
       </c>
       <c r="B578" t="n">
-        <v>3671</v>
+        <v>3716</v>
       </c>
       <c r="C578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>2023/07/06</t>
+          <t>2023/07/11</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>3758</v>
+        <v>3679</v>
       </c>
       <c r="C579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>2023/07/05</t>
+          <t>2023/07/10</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>3751</v>
+        <v>3654</v>
       </c>
       <c r="C580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>2023/07/04</t>
+          <t>2023/07/07</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>3768</v>
+        <v>3671</v>
       </c>
       <c r="C581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>2023/07/03</t>
+          <t>2023/07/06</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>3767</v>
+        <v>3758</v>
       </c>
       <c r="C582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/07/05</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>3721</v>
+        <v>3751</v>
       </c>
       <c r="C583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>2023/06/29</t>
+          <t>2023/07/04</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>3723</v>
+        <v>3768</v>
       </c>
       <c r="C584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>2023/06/28</t>
+          <t>2023/07/03</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>3731</v>
+        <v>3767</v>
       </c>
       <c r="C585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>2023/06/27</t>
+          <t>2023/06/30</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>3728</v>
+        <v>3721</v>
       </c>
       <c r="C586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>2023/06/26</t>
+          <t>2023/06/29</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>3667</v>
+        <v>3723</v>
       </c>
       <c r="C587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>2023/06/21</t>
+          <t>2023/06/28</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>3686</v>
+        <v>3731</v>
       </c>
       <c r="C588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>2023/06/20</t>
+          <t>2023/06/27</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>3743</v>
+        <v>3728</v>
       </c>
       <c r="C589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>2023/06/19</t>
+          <t>2023/06/26</t>
         </is>
       </c>
       <c r="B590" t="n">
-        <v>3752</v>
+        <v>3667</v>
       </c>
       <c r="C590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>2023/06/16</t>
+          <t>2023/06/21</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>3799</v>
+        <v>3686</v>
       </c>
       <c r="C591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>2023/06/15</t>
+          <t>2023/06/20</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>3760</v>
+        <v>3743</v>
       </c>
       <c r="C592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>2023/06/14</t>
+          <t>2023/06/19</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>3739</v>
+        <v>3752</v>
       </c>
       <c r="C593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>2023/06/13</t>
+          <t>2023/06/16</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>3741</v>
+        <v>3799</v>
       </c>
       <c r="C594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>2023/06/12</t>
+          <t>2023/06/15</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>3652</v>
+        <v>3760</v>
       </c>
       <c r="C595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>2023/06/09</t>
+          <t>2023/06/14</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>3711</v>
+        <v>3739</v>
       </c>
       <c r="C596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>2023/06/08</t>
+          <t>2023/06/13</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>3654</v>
+        <v>3741</v>
       </c>
       <c r="C597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>2023/06/07</t>
+          <t>2023/06/12</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>3621</v>
+        <v>3652</v>
       </c>
       <c r="C598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>2023/06/06</t>
+          <t>2023/06/09</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>3641</v>
+        <v>3711</v>
       </c>
       <c r="C599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>2023/06/05</t>
+          <t>2023/06/08</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>3638</v>
+        <v>3654</v>
       </c>
       <c r="C600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>2023/06/02</t>
+          <t>2023/06/07</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>3596</v>
+        <v>3621</v>
       </c>
       <c r="C601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
+          <t>2023/06/06</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>3641</v>
+      </c>
+      <c r="C602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2023/06/05</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2023/06/02</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>3596</v>
+      </c>
+      <c r="C604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
           <t>2023/06/01</t>
         </is>
       </c>
-      <c r="B602" t="n">
+      <c r="B605" t="n">
         <v>3546</v>
       </c>
-      <c r="C602" t="inlineStr"/>
+      <c r="C605" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
